--- a/Reports/proposal_report/objective_tree.xlsx
+++ b/Reports/proposal_report/objective_tree.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Halil Temurtaş\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Halil Temurtaş\Desktop\Ekstra\Capstone_Duayenler\Reports\proposal_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540A7E60-BF78-4E27-98A8-22DE1AD03EAC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D5AC4B-D70B-4E08-B473-BDAC4FDA1D1F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
   <si>
     <t xml:space="preserve">Having Fun </t>
   </si>
@@ -98,6 +98,27 @@
   <si>
     <t xml:space="preserve">Total
 </t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Marketability</t>
+  </si>
+  <si>
+    <t>Enverimental Effects</t>
+  </si>
+  <si>
+    <t>Feasibility</t>
+  </si>
+  <si>
+    <t>Fast Operation</t>
+  </si>
+  <si>
+    <t>Robust</t>
+  </si>
+  <si>
+    <t>Weight Balance</t>
   </si>
 </sst>
 </file>
@@ -219,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -259,6 +280,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -268,8 +298,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFE07187"/>
       <color rgb="FFEFB6C1"/>
-      <color rgb="FFE07187"/>
       <color rgb="FFCE2043"/>
     </mruColors>
   </colors>
@@ -581,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:K17"/>
+  <dimension ref="B1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,6 +982,255 @@
       <c r="I17" s="12"/>
       <c r="J17" s="10"/>
     </row>
+    <row r="19" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="1"/>
+      <c r="C20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G21" s="4">
+        <f>C21+D21+E21+F21</f>
+        <v>2.6</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="G22" s="7">
+        <f t="shared" ref="G22:G24" si="1">C22+D22+E22+F22</f>
+        <v>0.75</v>
+      </c>
+      <c r="H22" s="8">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0</v>
+      </c>
+      <c r="G24" s="7">
+        <f t="shared" si="1"/>
+        <v>1.05</v>
+      </c>
+      <c r="H24" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="15"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14">
+        <f>G21+G22+G23+G24</f>
+        <v>5.7</v>
+      </c>
+      <c r="H25" s="16">
+        <f>H21+H22+H23+H24</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="1"/>
+      <c r="C28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F29" s="4">
+        <f>C29+D29+E29</f>
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="H29" s="5">
+        <f>G29*0.45</f>
+        <v>0.14400000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F30" s="7">
+        <f t="shared" ref="F30:F31" si="2">C30+D30+E30</f>
+        <v>0.95</v>
+      </c>
+      <c r="G30" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="H30" s="8">
+        <f>G30*H21</f>
+        <v>0.14400000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="2"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="H31" s="5">
+        <f>G31*H21</f>
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="9"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12">
+        <f>F29+F30+F31</f>
+        <v>3</v>
+      </c>
+      <c r="G32" s="10">
+        <f>G29+G30+G31</f>
+        <v>1</v>
+      </c>
+      <c r="H32" s="10">
+        <f>H29+H30+H31</f>
+        <v>0.45000000000000007</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Reports/proposal_report/objective_tree.xlsx
+++ b/Reports/proposal_report/objective_tree.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Halil Temurtaş\Desktop\Ekstra\Capstone_Duayenler\Reports\proposal_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D5AC4B-D70B-4E08-B473-BDAC4FDA1D1F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBA3BB9-A3EE-4182-9EFF-4AAAFB388901}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -27,21 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
   <si>
     <t xml:space="preserve">Having Fun </t>
   </si>
   <si>
-    <t xml:space="preserve">Performance </t>
-  </si>
-  <si>
     <t xml:space="preserve">Original Solution </t>
   </si>
   <si>
     <t xml:space="preserve">Budget </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mechanical Challanges </t>
   </si>
   <si>
     <t xml:space="preserve">Complexity </t>
@@ -60,18 +54,10 @@
 (0.2)</t>
   </si>
   <si>
-    <t>Performance 
-(0.2)</t>
-  </si>
-  <si>
     <t>Budget 
 (0.1)</t>
   </si>
   <si>
-    <t>Mechanical Challanges 
-(0.12)</t>
-  </si>
-  <si>
     <t>Complexity 
 (0.16)</t>
   </si>
@@ -84,31 +70,32 @@
 (0.16)</t>
   </si>
   <si>
-    <t>Proje1</t>
-  </si>
-  <si>
-    <t>Proje2</t>
-  </si>
-  <si>
-    <t>Proje3</t>
-  </si>
-  <si>
-    <t>Proje4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Total
 </t>
   </si>
   <si>
+    <t>Chasing Cars</t>
+  </si>
+  <si>
+    <t>Mapping</t>
+  </si>
+  <si>
+    <t>Competition</t>
+  </si>
+  <si>
+    <t>Competition 
+(0.2)</t>
+  </si>
+  <si>
+    <t>Air Hockey</t>
+  </si>
+  <si>
     <t>Performance</t>
   </si>
   <si>
     <t>Marketability</t>
   </si>
   <si>
-    <t>Enverimental Effects</t>
-  </si>
-  <si>
     <t>Feasibility</t>
   </si>
   <si>
@@ -119,6 +106,40 @@
   </si>
   <si>
     <t>Weight Balance</t>
+  </si>
+  <si>
+    <t>Cost Efficiency</t>
+  </si>
+  <si>
+    <t>User Friendly</t>
+  </si>
+  <si>
+    <t>Power Consumption</t>
+  </si>
+  <si>
+    <t>Reversibility Potential</t>
+  </si>
+  <si>
+    <t>Easy Implemtation</t>
+  </si>
+  <si>
+    <t>Easy Implementation</t>
+  </si>
+  <si>
+    <t>Integration to Auto.</t>
+  </si>
+  <si>
+    <t>Balloon</t>
+  </si>
+  <si>
+    <t>Mechanical Challenges  
+(0.12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mechanical Challenges  </t>
+  </si>
+  <si>
+    <t>Environmental Effects</t>
   </si>
 </sst>
 </file>
@@ -169,7 +190,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -236,11 +257,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -281,13 +348,69 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -611,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:K32"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45:G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,28 +752,28 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -688,7 +811,7 @@
     </row>
     <row r="4" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C4" s="7">
         <v>0.5</v>
@@ -721,7 +844,7 @@
     </row>
     <row r="5" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="4">
         <v>0.25</v>
@@ -754,7 +877,7 @@
     </row>
     <row r="6" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="7">
         <v>0.2</v>
@@ -787,7 +910,7 @@
     </row>
     <row r="7" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C7" s="4">
         <v>0.1</v>
@@ -820,7 +943,7 @@
     </row>
     <row r="8" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" s="7">
         <v>0.4</v>
@@ -853,7 +976,7 @@
     </row>
     <row r="9" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9" s="4">
         <v>0.2</v>
@@ -906,332 +1029,924 @@
     <row r="13" spans="2:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="I13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="11" t="s">
+      <c r="J13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="11" t="s">
+    </row>
+    <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="14">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4">
+        <v>10</v>
+      </c>
+      <c r="E14" s="4">
+        <v>6</v>
+      </c>
+      <c r="F14" s="4">
+        <v>4</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>2</v>
+      </c>
+      <c r="I14" s="4">
+        <v>6</v>
+      </c>
+      <c r="J14" s="33">
+        <f>C15+D15+E15+F15+G15+H15</f>
+        <v>5.2800000000000011</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="30"/>
+      <c r="C15" s="14">
+        <f>C14*K3</f>
+        <v>1.6</v>
+      </c>
+      <c r="D15" s="4">
+        <f>D14*K4</f>
+        <v>2</v>
+      </c>
+      <c r="E15" s="4">
+        <f>E14*K5</f>
+        <v>0.96</v>
+      </c>
+      <c r="F15" s="4">
+        <f>F14*K6</f>
+        <v>0.4</v>
+      </c>
+      <c r="G15" s="4">
+        <f>G14*K7</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <f>H14*K8</f>
+        <v>0.32</v>
+      </c>
+      <c r="I15" s="4">
+        <f>I14*K9</f>
+        <v>0.36</v>
+      </c>
+      <c r="J15" s="34"/>
+    </row>
+    <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="7">
+        <v>8</v>
+      </c>
+      <c r="D16" s="7">
+        <v>8</v>
+      </c>
+      <c r="E16" s="7">
+        <v>4</v>
+      </c>
+      <c r="F16" s="7">
+        <v>8</v>
+      </c>
+      <c r="G16" s="7">
+        <v>2</v>
+      </c>
+      <c r="H16" s="7">
+        <v>6</v>
+      </c>
+      <c r="I16" s="7">
+        <v>8</v>
+      </c>
+      <c r="J16" s="35">
+        <f>C17+D17+E17+F17+G17+H17</f>
+        <v>5.8400000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="31"/>
+      <c r="C17" s="7">
+        <f>C16*K3</f>
+        <v>1.6</v>
+      </c>
+      <c r="D17" s="7">
+        <f>D16*K4</f>
+        <v>1.6</v>
+      </c>
+      <c r="E17" s="7">
+        <f>E16*K5</f>
+        <v>0.64</v>
+      </c>
+      <c r="F17" s="7">
+        <f>F16*K6</f>
+        <v>0.8</v>
+      </c>
+      <c r="G17" s="7">
+        <f>G16*K7</f>
+        <v>0.24</v>
+      </c>
+      <c r="H17" s="7">
+        <f>H16*K8</f>
+        <v>0.96</v>
+      </c>
+      <c r="I17" s="7">
+        <f>I16*K9</f>
+        <v>0.48</v>
+      </c>
+      <c r="J17" s="35"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="C18" s="14">
+        <v>10</v>
+      </c>
+      <c r="D18" s="4">
+        <v>8</v>
+      </c>
+      <c r="E18" s="4">
+        <v>8</v>
+      </c>
+      <c r="F18" s="4">
+        <v>6</v>
+      </c>
+      <c r="G18" s="4">
+        <v>6</v>
+      </c>
+      <c r="H18" s="4">
+        <v>8</v>
+      </c>
+      <c r="I18" s="4">
+        <v>10</v>
+      </c>
+      <c r="J18" s="34">
+        <f>C19+D19+E19+F19+G19+H19</f>
+        <v>7.48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="30"/>
+      <c r="C19" s="14">
+        <f>C18*K3</f>
+        <v>2</v>
+      </c>
+      <c r="D19" s="4">
+        <f>D18*K4</f>
+        <v>1.6</v>
+      </c>
+      <c r="E19" s="4">
+        <f>E18*K5</f>
+        <v>1.28</v>
+      </c>
+      <c r="F19" s="4">
+        <f>F18*K6</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="G19" s="4">
+        <f>G18*K7</f>
+        <v>0.72</v>
+      </c>
+      <c r="H19" s="4">
+        <f>H18*K8</f>
+        <v>1.28</v>
+      </c>
+      <c r="I19" s="4">
+        <f>I18*K9</f>
+        <v>0.6</v>
+      </c>
+      <c r="J19" s="34"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="C20" s="7">
+        <v>4</v>
+      </c>
+      <c r="D20" s="7">
+        <v>4</v>
+      </c>
+      <c r="E20" s="7">
+        <v>8</v>
+      </c>
+      <c r="F20" s="7">
+        <v>2</v>
+      </c>
+      <c r="G20" s="7">
+        <v>8</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>6</v>
+      </c>
+      <c r="J20" s="35">
+        <f>C21+D21+E21+F21+G21+H21</f>
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="32"/>
+      <c r="C21" s="12">
+        <f>C20*K3</f>
+        <v>0.8</v>
+      </c>
+      <c r="D21" s="12">
+        <f>D20*K4</f>
+        <v>0.8</v>
+      </c>
+      <c r="E21" s="12">
+        <f>E20*K5</f>
+        <v>1.28</v>
+      </c>
+      <c r="F21" s="12">
+        <f>F20*K6</f>
+        <v>0.2</v>
+      </c>
+      <c r="G21" s="12">
+        <f>G20*K7</f>
+        <v>0.96</v>
+      </c>
+      <c r="H21" s="12">
+        <f>H20*K8</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="12">
+        <f>I20*K9</f>
+        <v>0.36</v>
+      </c>
+      <c r="J21" s="36"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="1"/>
+      <c r="C24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+      <c r="G24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="2:10" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="9" t="s">
+      <c r="C25" s="4">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G25" s="4">
+        <f>C25+D25+E25+F25</f>
+        <v>2.6</v>
+      </c>
+      <c r="H25" s="18">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="10"/>
-    </row>
-    <row r="19" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="2:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="1"/>
-      <c r="C20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G21" s="4">
-        <f>C21+D21+E21+F21</f>
-        <v>2.6</v>
-      </c>
-      <c r="H21" s="5">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0</v>
-      </c>
-      <c r="D22" s="7">
-        <v>0</v>
-      </c>
-      <c r="E22" s="7">
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7">
         <v>0.4</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F26" s="7">
         <v>0.35</v>
       </c>
-      <c r="G22" s="7">
-        <f t="shared" ref="G22:G24" si="1">C22+D22+E22+F22</f>
+      <c r="G26" s="7">
+        <f t="shared" ref="G26:G28" si="1">C26+D26+E26+F26</f>
         <v>0.75</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H26" s="8">
         <v>0.12</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="4">
         <v>0.2</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D27" s="4">
         <v>0.6</v>
       </c>
-      <c r="E23" s="4">
-        <v>0</v>
-      </c>
-      <c r="F23" s="4">
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
         <v>0.5</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G27" s="4">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H27" s="18">
         <v>0.23</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="7">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="7">
         <v>0.2</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D28" s="7">
         <v>0.35</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E28" s="7">
         <v>0.5</v>
       </c>
-      <c r="F24" s="7">
-        <v>0</v>
-      </c>
-      <c r="G24" s="7">
+      <c r="F28" s="7">
+        <v>0</v>
+      </c>
+      <c r="G28" s="7">
         <f t="shared" si="1"/>
         <v>1.05</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H28" s="8">
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="15"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14">
-        <f>G21+G22+G23+G24</f>
+    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="20"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21">
+        <f>G25+G26+G27+G28</f>
         <v>5.7</v>
       </c>
-      <c r="H25" s="16">
-        <f>H21+H22+H23+H24</f>
+      <c r="H29" s="19">
+        <f>H25+H26+H27+H28</f>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="2:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="1"/>
-      <c r="C28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="4">
-        <v>0</v>
-      </c>
-      <c r="D29" s="4">
+    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="23"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" s="23"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="23"/>
+      <c r="B33" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0</v>
+      </c>
+      <c r="D33" s="4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E33" s="4">
         <v>0.4</v>
       </c>
-      <c r="F29" s="4">
-        <f>C29+D29+E29</f>
+      <c r="F33" s="4">
+        <f>C33+D33+E33</f>
         <v>0.95000000000000007</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G33" s="4">
         <v>0.32</v>
       </c>
-      <c r="H29" s="5">
-        <f>G29*0.45</f>
+      <c r="H33" s="24">
+        <f>G33*H25</f>
         <v>0.14400000000000002</v>
       </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="7">
+      <c r="I33" s="23"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="23"/>
+      <c r="B34" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="7">
         <v>0.45</v>
       </c>
-      <c r="D30" s="7">
-        <v>0</v>
-      </c>
-      <c r="E30" s="7">
+      <c r="D34" s="7">
+        <v>0</v>
+      </c>
+      <c r="E34" s="7">
         <v>0.5</v>
       </c>
-      <c r="F30" s="7">
-        <f t="shared" ref="F30:F31" si="2">C30+D30+E30</f>
+      <c r="F34" s="7">
+        <f t="shared" ref="F34:F35" si="2">C34+D34+E34</f>
         <v>0.95</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G34" s="7">
         <v>0.32</v>
       </c>
-      <c r="H30" s="8">
-        <f>G30*H21</f>
+      <c r="H34" s="25">
+        <f>G34*H25</f>
         <v>0.14400000000000002</v>
       </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="4">
+      <c r="I34" s="23"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="23"/>
+      <c r="B35" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="4">
         <v>0.6</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D35" s="4">
         <v>0.5</v>
       </c>
-      <c r="E31" s="4">
-        <v>0</v>
-      </c>
-      <c r="F31" s="4">
+      <c r="E35" s="4">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
         <f t="shared" si="2"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G35" s="4">
         <v>0.36</v>
       </c>
-      <c r="H31" s="5">
-        <f>G31*H21</f>
+      <c r="H35" s="24">
+        <f>G35*H25</f>
         <v>0.16200000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="9"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12">
-        <f>F29+F30+F31</f>
+      <c r="I35" s="23"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="23"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12">
+        <f>F33+F34+F35</f>
         <v>3</v>
       </c>
-      <c r="G32" s="10">
-        <f>G29+G30+G31</f>
+      <c r="G36" s="12">
+        <f>G33+G34+G35</f>
         <v>1</v>
       </c>
-      <c r="H32" s="10">
-        <f>H29+H30+H31</f>
+      <c r="H36" s="28">
+        <f>H33+H34+H35</f>
         <v>0.45000000000000007</v>
       </c>
+      <c r="I36" s="23"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="23"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="23"/>
+      <c r="B40" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="E40" s="4">
+        <f>C40+D40</f>
+        <v>0.6</v>
+      </c>
+      <c r="F40" s="4">
+        <f>E40/E42</f>
+        <v>0.6</v>
+      </c>
+      <c r="G40" s="24">
+        <f>F40*H26</f>
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="23"/>
+      <c r="B41" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="D41" s="7">
+        <v>0</v>
+      </c>
+      <c r="E41" s="7">
+        <f>C41+D41</f>
+        <v>0.4</v>
+      </c>
+      <c r="F41" s="7">
+        <f>E41/E42</f>
+        <v>0.4</v>
+      </c>
+      <c r="G41" s="25">
+        <f>F41*H26</f>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="23"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21">
+        <f>E40+E41</f>
+        <v>1</v>
+      </c>
+      <c r="F42" s="21">
+        <f>F40+F41</f>
+        <v>1</v>
+      </c>
+      <c r="G42" s="26">
+        <f>G40+G41</f>
+        <v>0.12</v>
+      </c>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="23"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="23"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="23"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="23"/>
+      <c r="B46" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="4">
+        <v>0</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="E46" s="4">
+        <f>C46+D46</f>
+        <v>0.95</v>
+      </c>
+      <c r="F46" s="4">
+        <f>E46/E48</f>
+        <v>0.95</v>
+      </c>
+      <c r="G46" s="24">
+        <f>F46*H27</f>
+        <v>0.2185</v>
+      </c>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="23"/>
+      <c r="B47" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="D47" s="7">
+        <v>0</v>
+      </c>
+      <c r="E47" s="7">
+        <f>C47+D47</f>
+        <v>0.05</v>
+      </c>
+      <c r="F47" s="7">
+        <f>E47/E48</f>
+        <v>0.05</v>
+      </c>
+      <c r="G47" s="25">
+        <f>F47*H27</f>
+        <v>1.1500000000000002E-2</v>
+      </c>
+      <c r="H47" s="23"/>
+      <c r="I47" s="27"/>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="23"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21">
+        <f>E46+E47</f>
+        <v>1</v>
+      </c>
+      <c r="F48" s="21">
+        <f>F46+F47</f>
+        <v>1</v>
+      </c>
+      <c r="G48" s="26">
+        <f>G46+G47</f>
+        <v>0.23</v>
+      </c>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="23"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="23"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+    </row>
+    <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="23"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="23"/>
+      <c r="B52" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="4">
+        <v>0</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E52" s="4">
+        <f>C52+D52</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F52" s="4">
+        <f>E52/E54</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G52" s="24">
+        <f>F52*H33</f>
+        <v>7.920000000000002E-2</v>
+      </c>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="23"/>
+      <c r="B53" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="D53" s="7">
+        <v>0</v>
+      </c>
+      <c r="E53" s="7">
+        <f>C53+D53</f>
+        <v>0.45</v>
+      </c>
+      <c r="F53" s="7">
+        <f>E53/E54</f>
+        <v>0.45</v>
+      </c>
+      <c r="G53" s="25">
+        <f>F53*H33</f>
+        <v>6.480000000000001E-2</v>
+      </c>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
+    </row>
+    <row r="54" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="23"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21">
+        <f>E52+E53</f>
+        <v>1</v>
+      </c>
+      <c r="F54" s="21">
+        <f>F52+F53</f>
+        <v>1</v>
+      </c>
+      <c r="G54" s="26">
+        <f>G52+G53</f>
+        <v>0.14400000000000002</v>
+      </c>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="23"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="23"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="23"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J20:J21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Reports/proposal_report/objective_tree.xlsx
+++ b/Reports/proposal_report/objective_tree.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Halil Temurtaş\Desktop\Ekstra\Capstone_Duayenler\Reports\proposal_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBA3BB9-A3EE-4182-9EFF-4AAAFB388901}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC8380C-9FEA-456D-9B70-0D284828CC83}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sayfa2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179020"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
   <si>
     <t xml:space="preserve">Having Fun </t>
   </si>
@@ -140,6 +141,69 @@
   </si>
   <si>
     <t>Environmental Effects</t>
+  </si>
+  <si>
+    <t>Fast Operation
+(0.14)</t>
+  </si>
+  <si>
+    <t>Robust and Relaible Operation
+(0.14)</t>
+  </si>
+  <si>
+    <t>Weight Balance
+(0.17)</t>
+  </si>
+  <si>
+    <t>Cost Effective
+(0.07)</t>
+  </si>
+  <si>
+    <t>User Friendly
+(0.05)</t>
+  </si>
+  <si>
+    <t>Power Consumption
+(0.22)</t>
+  </si>
+  <si>
+    <t>Reusability Potential 
+(0.01)</t>
+  </si>
+  <si>
+    <t>Easy Implementation
+(0.11)</t>
+  </si>
+  <si>
+    <t>Integreation to Autonomous Systems
+(0.09)</t>
+  </si>
+  <si>
+    <t>Design 1</t>
+  </si>
+  <si>
+    <t>Design 2</t>
+  </si>
+  <si>
+    <t>Design 3</t>
+  </si>
+  <si>
+    <t>10: Excellent</t>
+  </si>
+  <si>
+    <t>8: Good</t>
+  </si>
+  <si>
+    <t>2: Unacceptable</t>
+  </si>
+  <si>
+    <t>0: Failure</t>
+  </si>
+  <si>
+    <t>4: Av.</t>
+  </si>
+  <si>
+    <t>6: Satis.</t>
   </si>
 </sst>
 </file>
@@ -190,7 +254,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -303,11 +367,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -413,6 +492,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,8 +510,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFEFB6C1"/>
       <color rgb="FFE07187"/>
-      <color rgb="FFEFB6C1"/>
       <color rgb="FFCE2043"/>
     </mruColors>
   </colors>
@@ -736,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45:G48"/>
+    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58:L64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1950,4 +2039,339 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B005227-772D-45AE-8D76-50C6CC21EA45}">
+  <dimension ref="B4:L19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" customWidth="1"/>
+    <col min="13" max="14" width="26.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:12" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+      <c r="C5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="14">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4">
+        <v>6</v>
+      </c>
+      <c r="F6" s="4">
+        <v>4</v>
+      </c>
+      <c r="G6" s="14">
+        <v>8</v>
+      </c>
+      <c r="H6" s="4">
+        <v>10</v>
+      </c>
+      <c r="I6" s="4">
+        <v>6</v>
+      </c>
+      <c r="J6" s="4">
+        <v>4</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="24">
+        <f>C6+D6+E6+F6+G6+H6+I6+J6+K6</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="30"/>
+      <c r="C7" s="14">
+        <f>C6*0.14</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="D7" s="14">
+        <f>D6*0.14</f>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="E7" s="14">
+        <f>E6*0.17</f>
+        <v>1.02</v>
+      </c>
+      <c r="F7" s="14">
+        <f>F6*0.07</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G7" s="14">
+        <f>G6*0.05</f>
+        <v>0.4</v>
+      </c>
+      <c r="H7" s="14">
+        <f>H6*0.22</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I7" s="14">
+        <f>I6*0.01</f>
+        <v>0.06</v>
+      </c>
+      <c r="J7" s="14">
+        <f>J6*0.11</f>
+        <v>0.44</v>
+      </c>
+      <c r="K7" s="14">
+        <f>K6*0.09</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="24">
+        <f>C7+D7+E7+F7+G7+H7+I7+J7+K7</f>
+        <v>6.9200000000000008</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="7">
+        <v>8</v>
+      </c>
+      <c r="D8" s="7">
+        <v>8</v>
+      </c>
+      <c r="E8" s="7">
+        <v>4</v>
+      </c>
+      <c r="F8" s="7">
+        <v>8</v>
+      </c>
+      <c r="G8" s="7">
+        <v>8</v>
+      </c>
+      <c r="H8" s="7">
+        <v>8</v>
+      </c>
+      <c r="I8" s="7">
+        <v>4</v>
+      </c>
+      <c r="J8" s="7">
+        <v>8</v>
+      </c>
+      <c r="K8" s="7">
+        <v>2</v>
+      </c>
+      <c r="L8" s="25">
+        <f t="shared" ref="L8:L11" si="0">C8+D8+E8+F8+G8+H8+I8+J8+K8</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="31"/>
+      <c r="C9" s="7">
+        <f>C8*0.14</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="D9" s="7">
+        <f>D8*0.14</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E9" s="7">
+        <f>E8*0.17</f>
+        <v>0.68</v>
+      </c>
+      <c r="F9" s="7">
+        <f>F8*0.07</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G9" s="7">
+        <f>G8*0.05</f>
+        <v>0.4</v>
+      </c>
+      <c r="H9" s="7">
+        <f>H8*0.22</f>
+        <v>1.76</v>
+      </c>
+      <c r="I9" s="7">
+        <f>I8*0.01</f>
+        <v>0.04</v>
+      </c>
+      <c r="J9" s="7">
+        <f>J8*0.11</f>
+        <v>0.88</v>
+      </c>
+      <c r="K9" s="7">
+        <f>K8*0.09</f>
+        <v>0.18</v>
+      </c>
+      <c r="L9" s="25">
+        <f t="shared" si="0"/>
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="14">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4">
+        <v>8</v>
+      </c>
+      <c r="F10" s="4">
+        <v>6</v>
+      </c>
+      <c r="G10" s="14">
+        <v>10</v>
+      </c>
+      <c r="H10" s="4">
+        <v>8</v>
+      </c>
+      <c r="I10" s="4">
+        <v>8</v>
+      </c>
+      <c r="J10" s="4">
+        <v>6</v>
+      </c>
+      <c r="K10" s="4">
+        <v>6</v>
+      </c>
+      <c r="L10" s="24">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="38"/>
+      <c r="C11" s="39">
+        <f>C10*0.14</f>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="D11" s="39">
+        <f>D10*0.14</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E11" s="21">
+        <f>E10*0.17</f>
+        <v>1.36</v>
+      </c>
+      <c r="F11" s="21">
+        <f>F10*0.07</f>
+        <v>0.42000000000000004</v>
+      </c>
+      <c r="G11" s="39">
+        <f>G10*0.05</f>
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="21">
+        <f>H10*0.22</f>
+        <v>1.76</v>
+      </c>
+      <c r="I11" s="21">
+        <f>I10*0.01</f>
+        <v>0.08</v>
+      </c>
+      <c r="J11" s="21">
+        <f>J10*0.11</f>
+        <v>0.66</v>
+      </c>
+      <c r="K11" s="21">
+        <f>K10*0.09</f>
+        <v>0.54</v>
+      </c>
+      <c r="L11" s="26">
+        <f t="shared" si="0"/>
+        <v>7.8400000000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C14" s="40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C15" s="40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C16" s="40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Reports/proposal_report/objective_tree.xlsx
+++ b/Reports/proposal_report/objective_tree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Halil Temurtaş\Desktop\Ekstra\Capstone_Duayenler\Reports\proposal_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC8380C-9FEA-456D-9B70-0D284828CC83}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8EFEEB-9D0A-450E-8C4D-2A0FDD639E50}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -200,10 +200,10 @@
     <t>0: Failure</t>
   </si>
   <si>
-    <t>4: Av.</t>
-  </si>
-  <si>
-    <t>6: Satis.</t>
+    <t>4: Average</t>
+  </si>
+  <si>
+    <t>6: Satisfactory</t>
   </si>
 </sst>
 </file>
@@ -386,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -468,40 +468,43 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -825,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58:L64"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,7 +1146,7 @@
       </c>
     </row>
     <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="33" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="14">
@@ -1167,13 +1170,13 @@
       <c r="I14" s="4">
         <v>6</v>
       </c>
-      <c r="J14" s="33">
+      <c r="J14" s="37">
         <f>C15+D15+E15+F15+G15+H15</f>
         <v>5.2800000000000011</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="30"/>
+      <c r="B15" s="34"/>
       <c r="C15" s="14">
         <f>C14*K3</f>
         <v>1.6</v>
@@ -1202,10 +1205,10 @@
         <f>I14*K9</f>
         <v>0.36</v>
       </c>
-      <c r="J15" s="34"/>
+      <c r="J15" s="38"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="7">
@@ -1229,13 +1232,13 @@
       <c r="I16" s="7">
         <v>8</v>
       </c>
-      <c r="J16" s="35">
+      <c r="J16" s="39">
         <f>C17+D17+E17+F17+G17+H17</f>
         <v>5.8400000000000007</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="31"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="7">
         <f>C16*K3</f>
         <v>1.6</v>
@@ -1264,10 +1267,10 @@
         <f>I16*K9</f>
         <v>0.48</v>
       </c>
-      <c r="J17" s="35"/>
+      <c r="J17" s="39"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="34" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="14">
@@ -1291,13 +1294,13 @@
       <c r="I18" s="4">
         <v>10</v>
       </c>
-      <c r="J18" s="34">
+      <c r="J18" s="38">
         <f>C19+D19+E19+F19+G19+H19</f>
         <v>7.48</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="30"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="14">
         <f>C18*K3</f>
         <v>2</v>
@@ -1326,10 +1329,10 @@
         <f>I18*K9</f>
         <v>0.6</v>
       </c>
-      <c r="J19" s="34"/>
+      <c r="J19" s="38"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="35" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="7">
@@ -1353,13 +1356,13 @@
       <c r="I20" s="7">
         <v>6</v>
       </c>
-      <c r="J20" s="35">
+      <c r="J20" s="39">
         <f>C21+D21+E21+F21+G21+H21</f>
         <v>4.04</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="32"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="12">
         <f>C20*K3</f>
         <v>0.8</v>
@@ -1388,7 +1391,7 @@
         <f>I20*K9</f>
         <v>0.36</v>
       </c>
-      <c r="J21" s="36"/>
+      <c r="J21" s="40"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2045,8 +2048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B005227-772D-45AE-8D76-50C6CC21EA45}">
   <dimension ref="B4:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2095,71 +2098,71 @@
       <c r="K5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="37" t="s">
+      <c r="L5" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="33" t="s">
         <v>44</v>
       </c>
       <c r="C6" s="14">
         <v>8</v>
       </c>
       <c r="D6" s="4">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4</v>
+      </c>
+      <c r="F6" s="4">
         <v>10</v>
       </c>
-      <c r="E6" s="4">
-        <v>6</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="G6" s="14">
+        <v>6</v>
+      </c>
+      <c r="H6" s="4">
+        <v>8</v>
+      </c>
+      <c r="I6" s="4">
+        <v>6</v>
+      </c>
+      <c r="J6" s="4">
+        <v>8</v>
+      </c>
+      <c r="K6" s="4">
         <v>4</v>
       </c>
-      <c r="G6" s="14">
-        <v>8</v>
-      </c>
-      <c r="H6" s="4">
-        <v>10</v>
-      </c>
-      <c r="I6" s="4">
-        <v>6</v>
-      </c>
-      <c r="J6" s="4">
-        <v>4</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0</v>
-      </c>
-      <c r="L6" s="24">
+      <c r="L6" s="29">
         <f>C6+D6+E6+F6+G6+H6+I6+J6+K6</f>
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="30"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="14">
         <f>C6*0.14</f>
         <v>1.1200000000000001</v>
       </c>
       <c r="D7" s="14">
         <f>D6*0.14</f>
-        <v>1.4000000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E7" s="14">
         <f>E6*0.17</f>
-        <v>1.02</v>
+        <v>0.68</v>
       </c>
       <c r="F7" s="14">
         <f>F6*0.07</f>
-        <v>0.28000000000000003</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="G7" s="14">
         <f>G6*0.05</f>
-        <v>0.4</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="H7" s="14">
         <f>H6*0.22</f>
-        <v>2.2000000000000002</v>
+        <v>1.76</v>
       </c>
       <c r="I7" s="14">
         <f>I6*0.01</f>
@@ -2167,29 +2170,29 @@
       </c>
       <c r="J7" s="14">
         <f>J6*0.11</f>
-        <v>0.44</v>
+        <v>0.88</v>
       </c>
       <c r="K7" s="14">
         <f>K6*0.09</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="24">
+        <v>0.36</v>
+      </c>
+      <c r="L7" s="29">
         <f>C7+D7+E7+F7+G7+H7+I7+J7+K7</f>
-        <v>6.9200000000000008</v>
+        <v>6.42</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="35" t="s">
         <v>45</v>
       </c>
       <c r="C8" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D8" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E8" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F8" s="7">
         <v>8</v>
@@ -2198,35 +2201,35 @@
         <v>8</v>
       </c>
       <c r="H8" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I8" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J8" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K8" s="7">
-        <v>2</v>
-      </c>
-      <c r="L8" s="25">
+        <v>6</v>
+      </c>
+      <c r="L8" s="30">
         <f t="shared" ref="L8:L11" si="0">C8+D8+E8+F8+G8+H8+I8+J8+K8</f>
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="31"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="7">
         <f>C8*0.14</f>
-        <v>1.1200000000000001</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="D9" s="7">
         <f>D8*0.14</f>
-        <v>1.1200000000000001</v>
+        <v>0.84000000000000008</v>
       </c>
       <c r="E9" s="7">
         <f>E8*0.17</f>
-        <v>0.68</v>
+        <v>1.02</v>
       </c>
       <c r="F9" s="7">
         <f>F8*0.07</f>
@@ -2238,34 +2241,34 @@
       </c>
       <c r="H9" s="7">
         <f>H8*0.22</f>
-        <v>1.76</v>
+        <v>1.32</v>
       </c>
       <c r="I9" s="7">
         <f>I8*0.01</f>
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="J9" s="7">
         <f>J8*0.11</f>
-        <v>0.88</v>
+        <v>0.66</v>
       </c>
       <c r="K9" s="7">
         <f>K8*0.09</f>
-        <v>0.18</v>
-      </c>
-      <c r="L9" s="25">
+        <v>0.54</v>
+      </c>
+      <c r="L9" s="30">
         <f t="shared" si="0"/>
-        <v>6.74</v>
+        <v>6.8000000000000007</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="34" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="14">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4">
         <v>10</v>
-      </c>
-      <c r="D10" s="4">
-        <v>8</v>
       </c>
       <c r="E10" s="4">
         <v>8</v>
@@ -2274,34 +2277,34 @@
         <v>6</v>
       </c>
       <c r="G10" s="14">
+        <v>8</v>
+      </c>
+      <c r="H10" s="4">
+        <v>4</v>
+      </c>
+      <c r="I10" s="4">
+        <v>6</v>
+      </c>
+      <c r="J10" s="4">
+        <v>4</v>
+      </c>
+      <c r="K10" s="4">
         <v>10</v>
       </c>
-      <c r="H10" s="4">
-        <v>8</v>
-      </c>
-      <c r="I10" s="4">
-        <v>8</v>
-      </c>
-      <c r="J10" s="4">
-        <v>6</v>
-      </c>
-      <c r="K10" s="4">
-        <v>6</v>
-      </c>
-      <c r="L10" s="24">
+      <c r="L10" s="29">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="38"/>
-      <c r="C11" s="39">
+      <c r="B11" s="41"/>
+      <c r="C11" s="31">
         <f>C10*0.14</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="D11" s="31">
+        <f>D10*0.14</f>
         <v>1.4000000000000001</v>
-      </c>
-      <c r="D11" s="39">
-        <f>D10*0.14</f>
-        <v>1.1200000000000001</v>
       </c>
       <c r="E11" s="21">
         <f>E10*0.17</f>
@@ -2311,58 +2314,58 @@
         <f>F10*0.07</f>
         <v>0.42000000000000004</v>
       </c>
-      <c r="G11" s="39">
+      <c r="G11" s="31">
         <f>G10*0.05</f>
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H11" s="21">
         <f>H10*0.22</f>
-        <v>1.76</v>
+        <v>0.88</v>
       </c>
       <c r="I11" s="21">
         <f>I10*0.01</f>
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="J11" s="21">
         <f>J10*0.11</f>
-        <v>0.66</v>
+        <v>0.44</v>
       </c>
       <c r="K11" s="21">
         <f>K10*0.09</f>
-        <v>0.54</v>
-      </c>
-      <c r="L11" s="26">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="L11" s="19">
         <f t="shared" si="0"/>
-        <v>7.8400000000000007</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="32" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="32" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="32" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="32" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="32" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="32" t="s">
         <v>50</v>
       </c>
     </row>

--- a/Reports/proposal_report/objective_tree.xlsx
+++ b/Reports/proposal_report/objective_tree.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Halil Temurtaş\Desktop\Ekstra\Capstone_Duayenler\Reports\proposal_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8EFEEB-9D0A-450E-8C4D-2A0FDD639E50}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201D37B1-1B40-44C0-94D0-CA6896C65459}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -78,9 +78,6 @@
     <t>Chasing Cars</t>
   </si>
   <si>
-    <t>Mapping</t>
-  </si>
-  <si>
     <t>Competition</t>
   </si>
   <si>
@@ -130,9 +127,6 @@
     <t>Integration to Auto.</t>
   </si>
   <si>
-    <t>Balloon</t>
-  </si>
-  <si>
     <t>Mechanical Challenges  
 (0.12)</t>
   </si>
@@ -147,10 +141,6 @@
 (0.14)</t>
   </si>
   <si>
-    <t>Robust and Relaible Operation
-(0.14)</t>
-  </si>
-  <si>
     <t>Weight Balance
 (0.17)</t>
   </si>
@@ -175,35 +165,48 @@
 (0.11)</t>
   </si>
   <si>
-    <t>Integreation to Autonomous Systems
+    <t>Design 1</t>
+  </si>
+  <si>
+    <t>Design 2</t>
+  </si>
+  <si>
+    <t>Design 3</t>
+  </si>
+  <si>
+    <t>10: Excellent</t>
+  </si>
+  <si>
+    <t>8: Good</t>
+  </si>
+  <si>
+    <t>2: Unacceptable</t>
+  </si>
+  <si>
+    <t>0: Failure</t>
+  </si>
+  <si>
+    <t>4: Average</t>
+  </si>
+  <si>
+    <t>6: Satisfactory</t>
+  </si>
+  <si>
+    <t>Robust and Reliable  
+Operation
+(0.14)</t>
+  </si>
+  <si>
+    <t>Integration to Autonomous Systems
 (0.09)</t>
   </si>
   <si>
-    <t>Design 1</t>
-  </si>
-  <si>
-    <t>Design 2</t>
-  </si>
-  <si>
-    <t>Design 3</t>
-  </si>
-  <si>
-    <t>10: Excellent</t>
-  </si>
-  <si>
-    <t>8: Good</t>
-  </si>
-  <si>
-    <t>2: Unacceptable</t>
-  </si>
-  <si>
-    <t>0: Failure</t>
-  </si>
-  <si>
-    <t>4: Average</t>
-  </si>
-  <si>
-    <t>6: Satisfactory</t>
+    <t>Balloon
+Catching</t>
+  </si>
+  <si>
+    <t>Mapping
+Robot</t>
   </si>
 </sst>
 </file>
@@ -386,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -504,6 +507,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -828,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
@@ -853,7 +862,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>3</v>
@@ -903,7 +912,7 @@
     </row>
     <row r="4" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="7">
         <v>0.5</v>
@@ -1002,7 +1011,7 @@
     </row>
     <row r="7" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" s="4">
         <v>0.1</v>
@@ -1124,7 +1133,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>11</v>
@@ -1133,7 +1142,7 @@
         <v>8</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>9</v>
@@ -1146,8 +1155,8 @@
       </c>
     </row>
     <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="33" t="s">
-        <v>31</v>
+      <c r="B14" s="42" t="s">
+        <v>51</v>
       </c>
       <c r="C14" s="14">
         <v>8</v>
@@ -1209,7 +1218,7 @@
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="7">
         <v>8</v>
@@ -1332,8 +1341,8 @@
       <c r="J19" s="38"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="35" t="s">
-        <v>14</v>
+      <c r="B20" s="43" t="s">
+        <v>52</v>
       </c>
       <c r="C20" s="7">
         <v>4</v>
@@ -1397,16 +1406,16 @@
     <row r="24" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>5</v>
@@ -1417,7 +1426,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B25" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="4">
         <v>0</v>
@@ -1441,7 +1450,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -1465,7 +1474,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B27" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C27" s="4">
         <v>0.2</v>
@@ -1489,7 +1498,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28" s="7">
         <v>0.2</v>
@@ -1541,13 +1550,13 @@
       <c r="A32" s="23"/>
       <c r="B32" s="1"/>
       <c r="C32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>5</v>
@@ -1563,7 +1572,7 @@
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="23"/>
       <c r="B33" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C33" s="4">
         <v>0</v>
@@ -1590,7 +1599,7 @@
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
       <c r="B34" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C34" s="7">
         <v>0.45</v>
@@ -1617,7 +1626,7 @@
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
       <c r="B35" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C35" s="4">
         <v>0.6</v>
@@ -1687,10 +1696,10 @@
       <c r="A39" s="23"/>
       <c r="B39" s="1"/>
       <c r="C39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>5</v>
@@ -1707,7 +1716,7 @@
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="23"/>
       <c r="B40" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C40" s="4">
         <v>0</v>
@@ -1733,7 +1742,7 @@
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="23"/>
       <c r="B41" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C41" s="7">
         <v>0.4</v>
@@ -1802,10 +1811,10 @@
       <c r="A45" s="23"/>
       <c r="B45" s="1"/>
       <c r="C45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>5</v>
@@ -1822,7 +1831,7 @@
     <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="23"/>
       <c r="B46" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C46" s="4">
         <v>0</v>
@@ -1848,7 +1857,7 @@
     <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="23"/>
       <c r="B47" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C47" s="7">
         <v>0.05</v>
@@ -1917,10 +1926,10 @@
       <c r="A51" s="23"/>
       <c r="B51" s="1"/>
       <c r="C51" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>5</v>
@@ -1937,7 +1946,7 @@
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="23"/>
       <c r="B52" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C52" s="4">
         <v>0</v>
@@ -1963,7 +1972,7 @@
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="23"/>
       <c r="B53" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C53" s="7">
         <v>0.45</v>
@@ -2048,55 +2057,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B005227-772D-45AE-8D76-50C6CC21EA45}">
   <dimension ref="B4:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26.140625" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" customWidth="1"/>
+    <col min="3" max="12" width="15.7109375" customWidth="1"/>
     <col min="13" max="14" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:12" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="G5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="H5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="I5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="J5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>42</v>
-      </c>
       <c r="K5" s="11" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="L5" s="13" t="s">
         <v>5</v>
@@ -2104,7 +2104,7 @@
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="33" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C6" s="14">
         <v>8</v>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="35" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C8" s="7">
         <v>10</v>
@@ -2262,7 +2262,7 @@
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="34" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C10" s="14">
         <v>8</v>
@@ -2341,32 +2341,32 @@
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C14" s="32" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C15" s="32" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C16" s="32" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="32" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="32" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="32" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2376,5 +2376,6 @@
     <mergeCell ref="B10:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Reports/proposal_report/objective_tree.xlsx
+++ b/Reports/proposal_report/objective_tree.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Halil Temurtaş\Desktop\Ekstra\Capstone_Duayenler\Reports\proposal_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201D37B1-1B40-44C0-94D0-CA6896C65459}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD23A0A9-A0ED-4EC3-94C3-829ED60F209D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sayfa2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sayfa1 (6)" sheetId="7" r:id="rId1"/>
+    <sheet name="Sayfa1 (5)" sheetId="6" r:id="rId2"/>
+    <sheet name="Sayfa1 (4)" sheetId="5" r:id="rId3"/>
+    <sheet name="Sayfa1 (3)" sheetId="4" r:id="rId4"/>
+    <sheet name="Sayfa1 (2)" sheetId="3" r:id="rId5"/>
+    <sheet name="Sayfa1" sheetId="1" r:id="rId6"/>
+    <sheet name="Sayfa2" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="179020"/>
   <extLst>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="53">
   <si>
     <t xml:space="preserve">Having Fun </t>
   </si>
@@ -213,7 +218,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +236,32 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -389,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -403,9 +434,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -416,9 +444,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -471,48 +496,171 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -834,16 +982,1843 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E1E36F-AC30-4704-92A5-22A16CE80E2D}">
+  <dimension ref="A2:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:J21"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="11" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+    </row>
+    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="38">
+        <v>0</v>
+      </c>
+      <c r="D4" s="38">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E4" s="38">
+        <v>0.4</v>
+      </c>
+      <c r="F4" s="38">
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="G4" s="38">
+        <v>0.32</v>
+      </c>
+      <c r="H4" s="45">
+        <v>0.14400000000000002</v>
+      </c>
+      <c r="I4" s="21"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="39">
+        <v>0.45</v>
+      </c>
+      <c r="D5" s="39">
+        <v>0</v>
+      </c>
+      <c r="E5" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="39">
+        <v>0.95</v>
+      </c>
+      <c r="G5" s="39">
+        <v>0.32</v>
+      </c>
+      <c r="H5" s="46">
+        <v>0.14400000000000002</v>
+      </c>
+      <c r="I5" s="21"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="38">
+        <v>0.6</v>
+      </c>
+      <c r="D6" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="38">
+        <v>0</v>
+      </c>
+      <c r="F6" s="38">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G6" s="38">
+        <v>0.36</v>
+      </c>
+      <c r="H6" s="45">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="I6" s="21"/>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="30"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40">
+        <v>3</v>
+      </c>
+      <c r="G7" s="40">
+        <v>1</v>
+      </c>
+      <c r="H7" s="48">
+        <v>0.45000000000000007</v>
+      </c>
+      <c r="I7" s="21"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+    </row>
+    <row r="13" spans="2:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+    </row>
+    <row r="14" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+    </row>
+    <row r="15" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+    </row>
+    <row r="16" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="21"/>
+      <c r="C18" s="25"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+    </row>
+    <row r="24" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="21"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="21"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="21"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="21"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="21"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="21"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="21"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="21"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="21"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="21"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="21"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="21"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="21"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="21"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="21"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="21"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="21"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="21"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="21"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="21"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="21"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="21"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="21"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="21"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="21"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04FDD9B-D476-4557-B2B5-5C1737F60115}">
+  <dimension ref="A2:I56"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+    </row>
+    <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="38">
+        <v>0</v>
+      </c>
+      <c r="D6" s="38">
+        <v>0.95</v>
+      </c>
+      <c r="E6" s="38">
+        <v>0.95</v>
+      </c>
+      <c r="F6" s="38">
+        <v>0.95</v>
+      </c>
+      <c r="G6" s="45">
+        <v>0.2185</v>
+      </c>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="39">
+        <v>0.05</v>
+      </c>
+      <c r="D7" s="39">
+        <v>0</v>
+      </c>
+      <c r="E7" s="39">
+        <v>0.05</v>
+      </c>
+      <c r="F7" s="39">
+        <v>0.05</v>
+      </c>
+      <c r="G7" s="46">
+        <v>1.1500000000000002E-2</v>
+      </c>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+    </row>
+    <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="31"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43">
+        <v>1</v>
+      </c>
+      <c r="F8" s="43">
+        <v>1</v>
+      </c>
+      <c r="G8" s="47">
+        <v>0.23</v>
+      </c>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+    </row>
+    <row r="10" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+    </row>
+    <row r="11" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="21"/>
+      <c r="I11" s="25"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="38">
+        <v>0</v>
+      </c>
+      <c r="D12" s="38">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E12" s="38">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F12" s="38">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G12" s="45">
+        <v>7.920000000000002E-2</v>
+      </c>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="39">
+        <v>0.45</v>
+      </c>
+      <c r="D13" s="39">
+        <v>0</v>
+      </c>
+      <c r="E13" s="39">
+        <v>0.45</v>
+      </c>
+      <c r="F13" s="39">
+        <v>0.45</v>
+      </c>
+      <c r="G13" s="46">
+        <v>6.480000000000001E-2</v>
+      </c>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+    </row>
+    <row r="14" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="31"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43">
+        <v>1</v>
+      </c>
+      <c r="F14" s="43">
+        <v>1</v>
+      </c>
+      <c r="G14" s="47">
+        <v>0.14400000000000002</v>
+      </c>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="21"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="21"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="21"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="21"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="21"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="21"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="21"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="21"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="21"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="21"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="21"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="21"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="21"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="21"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="21"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="21"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="21"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="21"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="21"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="21"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="21"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="21"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="21"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="21"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="21"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8CBCC0B-455B-4216-8D5F-6346A92F79C7}">
+  <dimension ref="A1:I52"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="38">
+        <v>0</v>
+      </c>
+      <c r="D3" s="38">
+        <v>1</v>
+      </c>
+      <c r="E3" s="38">
+        <v>0.8</v>
+      </c>
+      <c r="F3" s="38">
+        <v>0.8</v>
+      </c>
+      <c r="G3" s="38">
+        <v>2.6</v>
+      </c>
+      <c r="H3" s="41">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="39">
+        <v>0</v>
+      </c>
+      <c r="D4" s="39">
+        <v>0</v>
+      </c>
+      <c r="E4" s="39">
+        <v>0.4</v>
+      </c>
+      <c r="F4" s="39">
+        <v>0.35</v>
+      </c>
+      <c r="G4" s="39">
+        <v>0.75</v>
+      </c>
+      <c r="H4" s="42">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="38">
+        <v>0.6</v>
+      </c>
+      <c r="E5" s="38">
+        <v>0</v>
+      </c>
+      <c r="F5" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="38">
+        <v>1.3</v>
+      </c>
+      <c r="H5" s="41">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="39">
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="39">
+        <v>0.35</v>
+      </c>
+      <c r="E6" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="39">
+        <v>0</v>
+      </c>
+      <c r="G6" s="39">
+        <v>1.05</v>
+      </c>
+      <c r="H6" s="42">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="31"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43">
+        <v>5.7</v>
+      </c>
+      <c r="H7" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+    </row>
+    <row r="10" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="21"/>
+    </row>
+    <row r="11" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="21"/>
+    </row>
+    <row r="12" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="21"/>
+    </row>
+    <row r="13" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="21"/>
+    </row>
+    <row r="14" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="21"/>
+    </row>
+    <row r="15" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="21"/>
+    </row>
+    <row r="16" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="21"/>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="21"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="21"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="21"/>
+    </row>
+    <row r="20" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="21"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="21"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="21"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="21"/>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="21"/>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="25"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="21"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="21"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="21"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="21"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="21"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="21"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="21"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="21"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="21"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="21"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="21"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="21"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="21"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="21"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="21"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="21"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="21"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="21"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D02EB2F-156B-4B32-95B4-F10A32A7F4D0}">
+  <dimension ref="A1:M56"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+    </row>
+    <row r="2" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+    </row>
+    <row r="3" spans="1:13" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+    </row>
+    <row r="4" spans="1:13" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="49"/>
+      <c r="C4" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="61">
+        <v>8</v>
+      </c>
+      <c r="D5" s="52">
+        <v>10</v>
+      </c>
+      <c r="E5" s="52">
+        <v>6</v>
+      </c>
+      <c r="F5" s="52">
+        <v>4</v>
+      </c>
+      <c r="G5" s="52">
+        <v>0</v>
+      </c>
+      <c r="H5" s="52">
+        <v>2</v>
+      </c>
+      <c r="I5" s="52">
+        <v>6</v>
+      </c>
+      <c r="J5" s="69">
+        <v>5.2800000000000011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="68"/>
+      <c r="C6" s="61">
+        <v>1.6</v>
+      </c>
+      <c r="D6" s="52">
+        <v>2</v>
+      </c>
+      <c r="E6" s="52">
+        <v>0.96</v>
+      </c>
+      <c r="F6" s="52">
+        <v>0.4</v>
+      </c>
+      <c r="G6" s="52">
+        <v>0</v>
+      </c>
+      <c r="H6" s="52">
+        <v>0.32</v>
+      </c>
+      <c r="I6" s="52">
+        <v>0.36</v>
+      </c>
+      <c r="J6" s="68"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="54">
+        <v>8</v>
+      </c>
+      <c r="D7" s="54">
+        <v>8</v>
+      </c>
+      <c r="E7" s="54">
+        <v>4</v>
+      </c>
+      <c r="F7" s="54">
+        <v>8</v>
+      </c>
+      <c r="G7" s="54">
+        <v>2</v>
+      </c>
+      <c r="H7" s="54">
+        <v>6</v>
+      </c>
+      <c r="I7" s="54">
+        <v>8</v>
+      </c>
+      <c r="J7" s="66">
+        <v>5.8400000000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="66"/>
+      <c r="C8" s="54">
+        <v>1.6</v>
+      </c>
+      <c r="D8" s="54">
+        <v>1.6</v>
+      </c>
+      <c r="E8" s="54">
+        <v>0.64</v>
+      </c>
+      <c r="F8" s="54">
+        <v>0.8</v>
+      </c>
+      <c r="G8" s="54">
+        <v>0.24</v>
+      </c>
+      <c r="H8" s="54">
+        <v>0.96</v>
+      </c>
+      <c r="I8" s="54">
+        <v>0.48</v>
+      </c>
+      <c r="J8" s="66"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="61">
+        <v>10</v>
+      </c>
+      <c r="D9" s="52">
+        <v>8</v>
+      </c>
+      <c r="E9" s="52">
+        <v>8</v>
+      </c>
+      <c r="F9" s="52">
+        <v>6</v>
+      </c>
+      <c r="G9" s="52">
+        <v>6</v>
+      </c>
+      <c r="H9" s="52">
+        <v>8</v>
+      </c>
+      <c r="I9" s="52">
+        <v>10</v>
+      </c>
+      <c r="J9" s="68">
+        <v>7.48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="68"/>
+      <c r="C10" s="61">
+        <v>2</v>
+      </c>
+      <c r="D10" s="52">
+        <v>1.6</v>
+      </c>
+      <c r="E10" s="52">
+        <v>1.28</v>
+      </c>
+      <c r="F10" s="52">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="G10" s="52">
+        <v>0.72</v>
+      </c>
+      <c r="H10" s="52">
+        <v>1.28</v>
+      </c>
+      <c r="I10" s="52">
+        <v>0.6</v>
+      </c>
+      <c r="J10" s="68"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="54">
+        <v>4</v>
+      </c>
+      <c r="D11" s="54">
+        <v>4</v>
+      </c>
+      <c r="E11" s="54">
+        <v>8</v>
+      </c>
+      <c r="F11" s="54">
+        <v>2</v>
+      </c>
+      <c r="G11" s="54">
+        <v>8</v>
+      </c>
+      <c r="H11" s="54">
+        <v>0</v>
+      </c>
+      <c r="I11" s="54">
+        <v>6</v>
+      </c>
+      <c r="J11" s="66">
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="65"/>
+      <c r="C12" s="56">
+        <v>0.8</v>
+      </c>
+      <c r="D12" s="56">
+        <v>0.8</v>
+      </c>
+      <c r="E12" s="56">
+        <v>1.28</v>
+      </c>
+      <c r="F12" s="56">
+        <v>0.2</v>
+      </c>
+      <c r="G12" s="56">
+        <v>0.96</v>
+      </c>
+      <c r="H12" s="56">
+        <v>0</v>
+      </c>
+      <c r="I12" s="56">
+        <v>0.36</v>
+      </c>
+      <c r="J12" s="65"/>
+    </row>
+    <row r="13" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="21"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="21"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="21"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="21"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="21"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="21"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="21"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="21"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="21"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="21"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="21"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="21"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="21"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="21"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="21"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="21"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="21"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="21"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="21"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="21"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="21"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="21"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="21"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="21"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="J9:J10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ACB0599-5D81-4BF5-85D1-6D71B3A6DB5C}">
+  <dimension ref="A1:K44"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="49"/>
+      <c r="C2" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="52">
+        <v>0</v>
+      </c>
+      <c r="D3" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="52">
+        <v>0.75</v>
+      </c>
+      <c r="F3" s="52">
+        <v>0.8</v>
+      </c>
+      <c r="G3" s="52">
+        <v>0.9</v>
+      </c>
+      <c r="H3" s="52">
+        <v>0.6</v>
+      </c>
+      <c r="I3" s="52">
+        <v>0.8</v>
+      </c>
+      <c r="J3" s="52">
+        <f>C3+D3+E3+F3+G3+H3+I3</f>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="K3" s="51">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="54">
+        <v>0</v>
+      </c>
+      <c r="E4" s="54">
+        <v>0.7</v>
+      </c>
+      <c r="F4" s="54">
+        <v>0.7</v>
+      </c>
+      <c r="G4" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="54">
+        <v>0.75</v>
+      </c>
+      <c r="I4" s="54">
+        <v>0.8</v>
+      </c>
+      <c r="J4" s="54">
+        <f t="shared" ref="J4:J9" si="0">C4+D4+E4+F4+G4+H4+I4</f>
+        <v>3.95</v>
+      </c>
+      <c r="K4" s="53">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="52">
+        <v>0.25</v>
+      </c>
+      <c r="D5" s="52">
+        <v>0.3</v>
+      </c>
+      <c r="E5" s="52">
+        <v>0</v>
+      </c>
+      <c r="F5" s="52">
+        <v>0.6</v>
+      </c>
+      <c r="G5" s="52">
+        <v>0.7</v>
+      </c>
+      <c r="H5" s="52">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I5" s="52">
+        <v>0.8</v>
+      </c>
+      <c r="J5" s="52">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+      <c r="K5" s="51">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="54">
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="54">
+        <v>0.3</v>
+      </c>
+      <c r="E6" s="54">
+        <v>0.4</v>
+      </c>
+      <c r="F6" s="54">
+        <v>0</v>
+      </c>
+      <c r="G6" s="54">
+        <v>0.2</v>
+      </c>
+      <c r="H6" s="54">
+        <v>0.3</v>
+      </c>
+      <c r="I6" s="54">
+        <v>0.8</v>
+      </c>
+      <c r="J6" s="54">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K6" s="53">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="52">
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="52">
+        <v>0.3</v>
+      </c>
+      <c r="E7" s="52">
+        <v>0.3</v>
+      </c>
+      <c r="F7" s="52">
+        <v>0.8</v>
+      </c>
+      <c r="G7" s="52">
+        <v>0</v>
+      </c>
+      <c r="H7" s="52">
+        <v>0.3</v>
+      </c>
+      <c r="I7" s="52">
+        <v>0.8</v>
+      </c>
+      <c r="J7" s="52">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+      <c r="K7" s="51">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="54">
+        <v>0.4</v>
+      </c>
+      <c r="D8" s="54">
+        <v>0.25</v>
+      </c>
+      <c r="E8" s="54">
+        <v>0.45</v>
+      </c>
+      <c r="F8" s="54">
+        <v>0.7</v>
+      </c>
+      <c r="G8" s="54">
+        <v>0.7</v>
+      </c>
+      <c r="H8" s="54">
+        <v>0</v>
+      </c>
+      <c r="I8" s="54">
+        <v>0.8</v>
+      </c>
+      <c r="J8" s="54">
+        <f t="shared" si="0"/>
+        <v>3.3</v>
+      </c>
+      <c r="K8" s="53">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="52">
+        <v>0.2</v>
+      </c>
+      <c r="D9" s="52">
+        <v>0.2</v>
+      </c>
+      <c r="E9" s="52">
+        <v>0.2</v>
+      </c>
+      <c r="F9" s="52">
+        <v>0.2</v>
+      </c>
+      <c r="G9" s="52">
+        <v>0.2</v>
+      </c>
+      <c r="H9" s="52">
+        <v>0.2</v>
+      </c>
+      <c r="I9" s="52">
+        <v>0</v>
+      </c>
+      <c r="J9" s="52">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="K9" s="51">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="55"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56">
+        <f>J3+J4+J5+J6+J7+J8+J9</f>
+        <v>20.8</v>
+      </c>
+      <c r="K10" s="55">
+        <f>SUM(K3:K9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+    </row>
+    <row r="24" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="21"/>
+      <c r="B35" s="25"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K56"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52:G54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -881,65 +2856,65 @@
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="C3" s="32">
+        <v>0</v>
+      </c>
+      <c r="D3" s="32">
         <v>0.5</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="32">
         <v>0.75</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="32">
         <v>0.8</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="32">
         <v>0.9</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="32">
         <v>0.6</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="32">
         <v>0.8</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="32">
         <f>C3+D3+E3+F3+G3+H3+I3</f>
         <v>4.3499999999999996</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="33">
         <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="34">
         <v>0.5</v>
       </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="D4" s="34">
+        <v>0</v>
+      </c>
+      <c r="E4" s="34">
         <v>0.7</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="34">
         <v>0.7</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="34">
         <v>0.5</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="34">
         <v>0.75</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="34">
         <v>0.8</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="34">
         <f t="shared" ref="J4:J9" si="0">C4+D4+E4+F4+G4+H4+I4</f>
         <v>3.95</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="35">
         <v>0.2</v>
       </c>
     </row>
@@ -947,65 +2922,65 @@
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="32">
         <v>0.25</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="32">
         <v>0.3</v>
       </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="E5" s="32">
+        <v>0</v>
+      </c>
+      <c r="F5" s="32">
         <v>0.6</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="32">
         <v>0.7</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="32">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="32">
         <v>0.8</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="32">
         <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="33">
         <v>0.16</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="34">
         <v>0.2</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="34">
         <v>0.3</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="34">
         <v>0.4</v>
       </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7">
+      <c r="F6" s="34">
+        <v>0</v>
+      </c>
+      <c r="G6" s="34">
         <v>0.2</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="34">
         <v>0.3</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="34">
         <v>0.8</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="34">
         <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="35">
         <v>0.1</v>
       </c>
     </row>
@@ -1013,65 +2988,65 @@
       <c r="B7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="32">
         <v>0.1</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="32">
         <v>0.3</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="32">
         <v>0.3</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="32">
         <v>0.8</v>
       </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
+      <c r="G7" s="32">
+        <v>0</v>
+      </c>
+      <c r="H7" s="32">
         <v>0.3</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="32">
         <v>0.8</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="32">
         <f t="shared" si="0"/>
         <v>2.6</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="33">
         <v>0.12</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="34">
         <v>0.4</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="34">
         <v>0.25</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="34">
         <v>0.45</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="34">
         <v>0.7</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="34">
         <v>0.7</v>
       </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
+      <c r="H8" s="34">
+        <v>0</v>
+      </c>
+      <c r="I8" s="34">
         <v>0.8</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="34">
         <f t="shared" si="0"/>
         <v>3.3</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="35">
         <v>0.16</v>
       </c>
     </row>
@@ -1079,49 +3054,49 @@
       <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="32">
         <v>0.2</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="32">
         <v>0.2</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="32">
         <v>0.2</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="32">
         <v>0.2</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="32">
         <v>0.2</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="32">
         <v>0.2</v>
       </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
+      <c r="I9" s="32">
+        <v>0</v>
+      </c>
+      <c r="J9" s="32">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="33">
         <v>0.06</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="9"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12">
+      <c r="B10" s="8"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36">
         <f>J3+J4+J5+J6+J7+J8+J9</f>
         <v>20.8</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="37">
         <f>SUM(K3:K9)</f>
         <v>1</v>
       </c>
@@ -1129,36 +3104,36 @@
     <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="12">
         <v>8</v>
       </c>
       <c r="D14" s="4">
@@ -1179,14 +3154,14 @@
       <c r="I14" s="4">
         <v>6</v>
       </c>
-      <c r="J14" s="37">
+      <c r="J14" s="75">
         <f>C15+D15+E15+F15+G15+H15</f>
         <v>5.2800000000000011</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="34"/>
-      <c r="C15" s="14">
+      <c r="B15" s="71"/>
+      <c r="C15" s="12">
         <f>C14*K3</f>
         <v>1.6</v>
       </c>
@@ -1214,75 +3189,75 @@
         <f>I14*K9</f>
         <v>0.36</v>
       </c>
-      <c r="J15" s="38"/>
+      <c r="J15" s="76"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>8</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>8</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <v>4</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <v>8</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <v>2</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="6">
         <v>6</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
         <v>8</v>
       </c>
-      <c r="J16" s="39">
+      <c r="J16" s="77">
         <f>C17+D17+E17+F17+G17+H17</f>
         <v>5.8400000000000007</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="35"/>
-      <c r="C17" s="7">
+      <c r="B17" s="72"/>
+      <c r="C17" s="6">
         <f>C16*K3</f>
         <v>1.6</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <f>D16*K4</f>
         <v>1.6</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <f>E16*K5</f>
         <v>0.64</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <f>F16*K6</f>
         <v>0.8</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <f>G16*K7</f>
         <v>0.24</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="6">
         <f>H16*K8</f>
         <v>0.96</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <f>I16*K9</f>
         <v>0.48</v>
       </c>
-      <c r="J17" s="39"/>
+      <c r="J17" s="77"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="12">
         <v>10</v>
       </c>
       <c r="D18" s="4">
@@ -1303,14 +3278,14 @@
       <c r="I18" s="4">
         <v>10</v>
       </c>
-      <c r="J18" s="38">
+      <c r="J18" s="76">
         <f>C19+D19+E19+F19+G19+H19</f>
         <v>7.48</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="34"/>
-      <c r="C19" s="14">
+      <c r="B19" s="71"/>
+      <c r="C19" s="12">
         <f>C18*K3</f>
         <v>2</v>
       </c>
@@ -1338,69 +3313,69 @@
         <f>I18*K9</f>
         <v>0.6</v>
       </c>
-      <c r="J19" s="38"/>
+      <c r="J19" s="76"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>4</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>4</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <v>8</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="6">
         <v>2</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="6">
         <v>8</v>
       </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
+      <c r="H20" s="6">
+        <v>0</v>
+      </c>
+      <c r="I20" s="6">
         <v>6</v>
       </c>
-      <c r="J20" s="39">
+      <c r="J20" s="77">
         <f>C21+D21+E21+F21+G21+H21</f>
         <v>4.04</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="36"/>
-      <c r="C21" s="12">
+      <c r="B21" s="74"/>
+      <c r="C21" s="10">
         <f>C20*K3</f>
         <v>0.8</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="10">
         <f>D20*K4</f>
         <v>0.8</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="10">
         <f>E20*K5</f>
         <v>1.28</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="10">
         <f>F20*K6</f>
         <v>0.2</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="10">
         <f>G20*K7</f>
         <v>0.96</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="10">
         <f>H20*K8</f>
         <v>0</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="10">
         <f>I20*K9</f>
         <v>0.36</v>
       </c>
-      <c r="J21" s="40"/>
+      <c r="J21" s="78"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1425,7 +3400,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="4">
@@ -1444,36 +3419,36 @@
         <f>C25+D25+E25+F25</f>
         <v>2.6</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H25" s="16">
         <v>0.45</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="7">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0</v>
-      </c>
-      <c r="E26" s="7">
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
         <v>0.4</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="6">
         <v>0.35</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="6">
         <f t="shared" ref="G26:G28" si="1">C26+D26+E26+F26</f>
         <v>0.75</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="7">
         <v>0.12</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="13" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="4">
@@ -1492,62 +3467,62 @@
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H27" s="16">
         <v>0.23</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="6">
         <v>0.2</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="6">
         <v>0.35</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="6">
         <v>0.5</v>
       </c>
-      <c r="F28" s="7">
-        <v>0</v>
-      </c>
-      <c r="G28" s="7">
+      <c r="F28" s="6">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6">
         <f t="shared" si="1"/>
         <v>1.05</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="7">
         <v>0.2</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="20"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21">
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19">
         <f>G25+G26+G27+G28</f>
         <v>5.7</v>
       </c>
-      <c r="H29" s="19">
+      <c r="H29" s="17">
         <f>H25+H26+H27+H28</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="1"/>
       <c r="C32" s="2" t="s">
         <v>20</v>
@@ -1564,14 +3539,14 @@
       <c r="G32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H32" s="22" t="s">
+      <c r="H32" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="I32" s="23"/>
+      <c r="I32" s="21"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
-      <c r="B33" s="15" t="s">
+      <c r="A33" s="21"/>
+      <c r="B33" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C33" s="4">
@@ -1590,42 +3565,42 @@
       <c r="G33" s="4">
         <v>0.32</v>
       </c>
-      <c r="H33" s="24">
+      <c r="H33" s="22">
         <f>G33*H25</f>
         <v>0.14400000000000002</v>
       </c>
-      <c r="I33" s="23"/>
+      <c r="I33" s="21"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
-      <c r="B34" s="16" t="s">
+      <c r="A34" s="21"/>
+      <c r="B34" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="6">
         <v>0.45</v>
       </c>
-      <c r="D34" s="7">
-        <v>0</v>
-      </c>
-      <c r="E34" s="7">
+      <c r="D34" s="6">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6">
         <v>0.5</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="6">
         <f t="shared" ref="F34:F35" si="2">C34+D34+E34</f>
         <v>0.95</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="6">
         <v>0.32</v>
       </c>
-      <c r="H34" s="25">
+      <c r="H34" s="23">
         <f>G34*H25</f>
         <v>0.14400000000000002</v>
       </c>
-      <c r="I34" s="23"/>
+      <c r="I34" s="21"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
-      <c r="B35" s="15" t="s">
+      <c r="A35" s="21"/>
+      <c r="B35" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C35" s="4">
@@ -1644,56 +3619,56 @@
       <c r="G35" s="4">
         <v>0.36</v>
       </c>
-      <c r="H35" s="24">
+      <c r="H35" s="22">
         <f>G35*H25</f>
         <v>0.16200000000000001</v>
       </c>
-      <c r="I35" s="23"/>
+      <c r="I35" s="21"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="23"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12">
+      <c r="A36" s="21"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10">
         <f>F33+F34+F35</f>
         <v>3</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="10">
         <f>G33+G34+G35</f>
         <v>1</v>
       </c>
-      <c r="H36" s="28">
+      <c r="H36" s="26">
         <f>H33+H34+H35</f>
         <v>0.45000000000000007</v>
       </c>
-      <c r="I36" s="23"/>
+      <c r="I36" s="21"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="23"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="1"/>
       <c r="C39" s="2" t="s">
         <v>23</v>
@@ -1707,15 +3682,15 @@
       <c r="F39" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G39" s="22" t="s">
+      <c r="G39" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="15" t="s">
+      <c r="A40" s="21"/>
+      <c r="B40" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C40" s="4">
@@ -1732,83 +3707,83 @@
         <f>E40/E42</f>
         <v>0.6</v>
       </c>
-      <c r="G40" s="24">
+      <c r="G40" s="22">
         <f>F40*H26</f>
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
-      <c r="B41" s="16" t="s">
+      <c r="A41" s="21"/>
+      <c r="B41" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="6">
         <v>0.4</v>
       </c>
-      <c r="D41" s="7">
-        <v>0</v>
-      </c>
-      <c r="E41" s="7">
+      <c r="D41" s="6">
+        <v>0</v>
+      </c>
+      <c r="E41" s="6">
         <f>C41+D41</f>
         <v>0.4</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="6">
         <f>E41/E42</f>
         <v>0.4</v>
       </c>
-      <c r="G41" s="25">
+      <c r="G41" s="23">
         <f>F41*H26</f>
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="23"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21">
+      <c r="A42" s="21"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19">
         <f>E40+E41</f>
         <v>1</v>
       </c>
-      <c r="F42" s="21">
+      <c r="F42" s="19">
         <f>F40+F41</f>
         <v>1</v>
       </c>
-      <c r="G42" s="26">
+      <c r="G42" s="24">
         <f>G40+G41</f>
         <v>0.12</v>
       </c>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
     </row>
     <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="23"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="23"/>
+      <c r="A45" s="21"/>
       <c r="B45" s="1"/>
       <c r="C45" s="2" t="s">
         <v>25</v>
@@ -1822,15 +3797,15 @@
       <c r="F45" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G45" s="22" t="s">
+      <c r="G45" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="23"/>
-      <c r="B46" s="15" t="s">
+      <c r="A46" s="21"/>
+      <c r="B46" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C46" s="4">
@@ -1847,83 +3822,83 @@
         <f>E46/E48</f>
         <v>0.95</v>
       </c>
-      <c r="G46" s="24">
+      <c r="G46" s="22">
         <f>F46*H27</f>
         <v>0.2185</v>
       </c>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="23"/>
-      <c r="B47" s="16" t="s">
+      <c r="A47" s="21"/>
+      <c r="B47" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="6">
         <v>0.05</v>
       </c>
-      <c r="D47" s="7">
-        <v>0</v>
-      </c>
-      <c r="E47" s="7">
+      <c r="D47" s="6">
+        <v>0</v>
+      </c>
+      <c r="E47" s="6">
         <f>C47+D47</f>
         <v>0.05</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="6">
         <f>E47/E48</f>
         <v>0.05</v>
       </c>
-      <c r="G47" s="25">
+      <c r="G47" s="23">
         <f>F47*H27</f>
         <v>1.1500000000000002E-2</v>
       </c>
-      <c r="H47" s="23"/>
-      <c r="I47" s="27"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="25"/>
     </row>
     <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="23"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21">
+      <c r="A48" s="21"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19">
         <f>E46+E47</f>
         <v>1</v>
       </c>
-      <c r="F48" s="21">
+      <c r="F48" s="19">
         <f>F46+F47</f>
         <v>1</v>
       </c>
-      <c r="G48" s="26">
+      <c r="G48" s="24">
         <f>G46+G47</f>
         <v>0.23</v>
       </c>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="23"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
     </row>
     <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="23"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
     </row>
     <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="23"/>
+      <c r="A51" s="21"/>
       <c r="B51" s="1"/>
       <c r="C51" s="2" t="s">
         <v>28</v>
@@ -1937,15 +3912,15 @@
       <c r="F51" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G51" s="22" t="s">
+      <c r="G51" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="23"/>
-      <c r="B52" s="15" t="s">
+      <c r="A52" s="21"/>
+      <c r="B52" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C52" s="4">
@@ -1962,80 +3937,80 @@
         <f>E52/E54</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="G52" s="24">
+      <c r="G52" s="22">
         <f>F52*H33</f>
         <v>7.920000000000002E-2</v>
       </c>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="23"/>
-      <c r="B53" s="16" t="s">
+      <c r="A53" s="21"/>
+      <c r="B53" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="6">
         <v>0.45</v>
       </c>
-      <c r="D53" s="7">
-        <v>0</v>
-      </c>
-      <c r="E53" s="7">
+      <c r="D53" s="6">
+        <v>0</v>
+      </c>
+      <c r="E53" s="6">
         <f>C53+D53</f>
         <v>0.45</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53" s="6">
         <f>E53/E54</f>
         <v>0.45</v>
       </c>
-      <c r="G53" s="25">
+      <c r="G53" s="23">
         <f>F53*H33</f>
         <v>6.480000000000001E-2</v>
       </c>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
     </row>
     <row r="54" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="23"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21">
+      <c r="A54" s="21"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19">
         <f>E52+E53</f>
         <v>1</v>
       </c>
-      <c r="F54" s="21">
+      <c r="F54" s="19">
         <f>F52+F53</f>
         <v>1</v>
       </c>
-      <c r="G54" s="26">
+      <c r="G54" s="24">
         <f>G52+G53</f>
         <v>0.14400000000000002</v>
       </c>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="23"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
+      <c r="A55" s="21"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="23"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2053,319 +4028,328 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B005227-772D-45AE-8D76-50C6CC21EA45}">
   <dimension ref="B4:L19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:L11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
-    <col min="3" max="12" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:12" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="1"/>
-      <c r="C5" s="11" t="s">
+    <row r="5" spans="2:12" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="49"/>
+      <c r="C5" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="58" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="33" t="s">
+    <row r="6" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="61">
         <v>8</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="52">
         <v>4</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="52">
         <v>4</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="52">
         <v>10</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="61">
         <v>6</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="52">
         <v>8</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="52">
         <v>6</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="52">
         <v>8</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="52">
         <v>4</v>
       </c>
-      <c r="L6" s="29">
+      <c r="L6" s="62">
         <f>C6+D6+E6+F6+G6+H6+I6+J6+K6</f>
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="34"/>
-      <c r="C7" s="14">
+    <row r="7" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="68"/>
+      <c r="C7" s="61">
         <f>C6*0.14</f>
         <v>1.1200000000000001</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="61">
         <f>D6*0.14</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="61">
         <f>E6*0.17</f>
         <v>0.68</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="61">
         <f>F6*0.07</f>
         <v>0.70000000000000007</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="61">
         <f>G6*0.05</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="61">
         <f>H6*0.22</f>
         <v>1.76</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="61">
         <f>I6*0.01</f>
         <v>0.06</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="61">
         <f>J6*0.11</f>
         <v>0.88</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="61">
         <f>K6*0.09</f>
         <v>0.36</v>
       </c>
-      <c r="L7" s="29">
+      <c r="L7" s="62">
         <f>C7+D7+E7+F7+G7+H7+I7+J7+K7</f>
         <v>6.42</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="35" t="s">
+    <row r="8" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="54">
         <v>10</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="54">
         <v>6</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="54">
         <v>6</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="54">
         <v>8</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="54">
         <v>8</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="54">
         <v>6</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="54">
         <v>6</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="54">
         <v>6</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="54">
         <v>6</v>
       </c>
-      <c r="L8" s="30">
+      <c r="L8" s="63">
         <f t="shared" ref="L8:L11" si="0">C8+D8+E8+F8+G8+H8+I8+J8+K8</f>
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="35"/>
-      <c r="C9" s="7">
+    <row r="9" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="66"/>
+      <c r="C9" s="54">
         <f>C8*0.14</f>
         <v>1.4000000000000001</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="54">
         <f>D8*0.14</f>
         <v>0.84000000000000008</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="54">
         <f>E8*0.17</f>
         <v>1.02</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="54">
         <f>F8*0.07</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="54">
         <f>G8*0.05</f>
         <v>0.4</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="54">
         <f>H8*0.22</f>
         <v>1.32</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="54">
         <f>I8*0.01</f>
         <v>0.06</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="54">
         <f>J8*0.11</f>
         <v>0.66</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="54">
         <f>K8*0.09</f>
         <v>0.54</v>
       </c>
-      <c r="L9" s="30">
+      <c r="L9" s="63">
         <f t="shared" si="0"/>
         <v>6.8000000000000007</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="34" t="s">
+    <row r="10" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="61">
         <v>8</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="52">
         <v>10</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="52">
         <v>8</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="52">
         <v>6</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="61">
         <v>8</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="52">
         <v>4</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="52">
         <v>6</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="52">
         <v>4</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="52">
         <v>10</v>
       </c>
-      <c r="L10" s="29">
+      <c r="L10" s="62">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="41"/>
-      <c r="C11" s="31">
+    <row r="11" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="79"/>
+      <c r="C11" s="80">
         <f>C10*0.14</f>
         <v>1.1200000000000001</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="80">
         <f>D10*0.14</f>
         <v>1.4000000000000001</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="81">
         <f>E10*0.17</f>
         <v>1.36</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="81">
         <f>F10*0.07</f>
         <v>0.42000000000000004</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="80">
         <f>G10*0.05</f>
         <v>0.4</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="81">
         <f>H10*0.22</f>
         <v>0.88</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="81">
         <f>I10*0.01</f>
         <v>0.06</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="81">
         <f>J10*0.11</f>
         <v>0.44</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K11" s="81">
         <f>K10*0.09</f>
         <v>0.89999999999999991</v>
       </c>
-      <c r="L11" s="19">
+      <c r="L11" s="82">
         <f t="shared" si="0"/>
         <v>6.98</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="27" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="27" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="27" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="27" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="27" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="27" t="s">
         <v>46</v>
       </c>
     </row>
